--- a/pred_ohlcv/54_21/2020-01-24 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 INS ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-28605.0243</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-28605.0243</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-29130.3853</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-29177.7332</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-35221.4947</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-87974.06420000001</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-87974.06420000001</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-87930.61060000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-89055.61060000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-89055.61060000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-88505.61060000001</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-88502.88060000002</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-88512.96080000002</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-88714.96070000001</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-88605.26950000001</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-93958.6162</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-92683.9161</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-92798.91070000001</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-92915.85470000001</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-92915.85470000001</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-92915.85470000001</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-93457.85410000001</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-93457.85410000001</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-93531.27480000001</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-90092.11930000002</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-90092.11930000002</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-90086.63380000003</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-88086.63380000003</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-88350.45690000002</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-88347.72690000002</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-81175.02910000003</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-81175.02910000003</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-81809.05070000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-81806.33070000002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-83951.15720000002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-90951.15720000002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-158549.8573</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-174102.3889000001</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-176306.8160000001</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-176206.8160000001</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-177601.4500000001</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-177601.4500000001</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-177601.4500000001</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-177601.4500000001</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-184072.3912000001</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-220497.4018000001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-235814.0098000001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-245604.0027000001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-231053.0151000001</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-231053.0151000001</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-231053.0151000001</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-204828.4594000001</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-215364.2513000001</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-217870.4740000002</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-220594.4163000002</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-220594.4163000002</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-220594.4163000002</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-220594.4163000002</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-24 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-24 INS ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>-28605.0243</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-28605.0243</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-29130.3853</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-29177.7332</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-38142.11730000001</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-87974.06420000001</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-87974.06420000001</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-87930.61060000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-89055.61060000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-89055.61060000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-88505.61060000001</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-88502.88060000002</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-88512.96080000002</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-88714.96070000001</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-88605.26950000001</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-93958.6162</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-92683.9161</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-92798.91070000001</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-92915.85470000001</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-92915.85470000001</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-92915.85470000001</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-93457.85410000001</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-93457.85410000001</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-93531.27480000001</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-90092.11930000002</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-90092.11930000002</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-90086.63380000003</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-88086.63380000003</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-88350.45690000002</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-88347.72690000002</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-81175.02910000003</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>-81175.02910000003</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-81809.05070000002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-81806.33070000002</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-83951.15720000002</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-90951.15720000002</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-158549.8573</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-174102.3889000001</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-176306.8160000001</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-176206.8160000001</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-177601.4500000001</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-177601.4500000001</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-177601.4500000001</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-177601.4500000001</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-184072.3912000001</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-220497.4018000001</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-235814.0098000001</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-245604.0027000001</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-231053.0151000001</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-231053.0151000001</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-231053.0151000001</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-231053.0151000001</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-204736.4594000001</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-204828.4594000001</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-215364.2513000001</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-217870.4740000002</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-220594.4163000002</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-220594.4163000002</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-220594.4163000002</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
